--- a/工作簿.xlsx
+++ b/工作簿.xlsx
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -526,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O81"/>
+  <dimension ref="A1:Y81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -883,75 +879,318 @@
       </c>
       <c r="B16" s="15"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
       <c r="B17" s="15"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
       <c r="B18" s="15"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="Q18">
+        <v>5</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>9</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
       <c r="B19" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="Q19">
+        <v>4</v>
+      </c>
+      <c r="R19">
+        <v>6</v>
+      </c>
+      <c r="S19">
+        <v>3</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
       <c r="B20" s="16"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="Q20">
+        <v>7</v>
+      </c>
+      <c r="R20">
+        <v>8</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
       <c r="B21" s="16"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>9</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>2</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
       <c r="B22" s="16"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>3</v>
+      </c>
+      <c r="U22">
+        <v>7</v>
+      </c>
+      <c r="V22">
+        <v>8</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
       <c r="B23" s="16"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>6</v>
+      </c>
+      <c r="U23">
+        <v>4</v>
+      </c>
+      <c r="V23">
+        <v>5</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
       <c r="B24" s="16"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>5</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
       <c r="B25" s="16"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>6</v>
+      </c>
+      <c r="X25">
+        <v>4</v>
+      </c>
+      <c r="Y25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
       <c r="B26" s="16"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>3</v>
+      </c>
+      <c r="X26">
+        <v>7</v>
+      </c>
+      <c r="Y26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
       <c r="B27" s="16"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -959,25 +1198,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
       <c r="B29" s="17"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
       <c r="B30" s="17"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
       <c r="B31" s="17"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
